--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1999592.376427487</v>
+        <v>1997136.424882836</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>303.21972719603</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>332.2110827772219</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1430,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572861</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1594,7 +1594,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1664,16 +1664,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201522</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>245.0609868094988</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>313.7055859435132</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6512616129629</v>
+        <v>268.9090977466784</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6969415247049</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>226.3829802585719</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96297765942728</v>
+        <v>40.96297765942727</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U17" t="n">
         <v>182.7703878301534</v>
@@ -1907,7 +1907,7 @@
         <v>281.0161845886644</v>
       </c>
       <c r="X17" t="n">
-        <v>24.76039716960154</v>
+        <v>301.5063165497205</v>
       </c>
       <c r="Y17" t="n">
         <v>318.013154527305</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2020,7 @@
         <v>76.53023078557221</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12763628108954</v>
+        <v>28.12763628108953</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70736854129878</v>
+        <v>20.70736854129876</v>
       </c>
       <c r="S19" t="n">
         <v>121.5442412026933</v>
@@ -2084,16 +2084,16 @@
         <v>297.048107642259</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4582574919344</v>
+        <v>216.71609362565</v>
       </c>
       <c r="E20" t="n">
         <v>313.7055859435132</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.6512616129629</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6969415247049</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>226.3829802585719</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96297765942724</v>
+        <v>40.9629776594273</v>
       </c>
       <c r="T20" t="n">
-        <v>61.90534223284416</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U20" t="n">
         <v>182.7703878301534</v>
@@ -2239,25 +2239,25 @@
         <v>111.6071960531887</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02203696987924</v>
+        <v>99.02203696987927</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39068888946376</v>
+        <v>80.39068888946379</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20917851782058</v>
+        <v>78.2091785178206</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19626389418265</v>
+        <v>77.19626389418268</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80102413027963</v>
+        <v>97.80102413027966</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53023078557219</v>
+        <v>76.53023078557221</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12763628108952</v>
+        <v>28.12763628108954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70736854129875</v>
+        <v>20.70736854129878</v>
       </c>
       <c r="S22" t="n">
         <v>121.5442412026933</v>
@@ -2567,7 +2567,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348602</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404365</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912456</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145339</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824765</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>72.72042229590218</v>
       </c>
       <c r="G37" t="n">
-        <v>136.6103570679227</v>
+        <v>93.32518253199916</v>
       </c>
       <c r="H37" t="n">
         <v>72.05438918729172</v>
@@ -3472,7 +3472,7 @@
         <v>16.23152694301828</v>
       </c>
       <c r="S37" t="n">
-        <v>117.0683996044128</v>
+        <v>160.3535741403361</v>
       </c>
       <c r="T37" t="n">
         <v>146.8483235491401</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.0332159364515</v>
+        <v>310.0332159364514</v>
       </c>
       <c r="C38" t="n">
-        <v>292.5722660439785</v>
+        <v>292.5722660439784</v>
       </c>
       <c r="D38" t="n">
-        <v>281.9824158936539</v>
+        <v>281.9824158936538</v>
       </c>
       <c r="E38" t="n">
-        <v>309.2297443452327</v>
+        <v>309.2297443452326</v>
       </c>
       <c r="F38" t="n">
         <v>334.1754200146823</v>
       </c>
       <c r="G38" t="n">
-        <v>338.2210999264244</v>
+        <v>338.2210999264243</v>
       </c>
       <c r="H38" t="n">
-        <v>221.9071386602914</v>
+        <v>221.9071386602913</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48713606114677</v>
+        <v>36.48713606114673</v>
       </c>
       <c r="T38" t="n">
-        <v>131.2173444125911</v>
+        <v>131.217344412591</v>
       </c>
       <c r="U38" t="n">
         <v>178.2945462318729</v>
@@ -3569,7 +3569,7 @@
         <v>297.0304749514399</v>
       </c>
       <c r="Y38" t="n">
-        <v>313.5373129290245</v>
+        <v>313.5373129290244</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>107.1313544549082</v>
       </c>
       <c r="C40" t="n">
-        <v>94.54619537159876</v>
+        <v>94.5461953715987</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91484729118328</v>
+        <v>75.91484729118322</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73333691954009</v>
+        <v>73.73333691954004</v>
       </c>
       <c r="F40" t="n">
-        <v>72.72042229590217</v>
+        <v>72.72042229590211</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32518253199915</v>
+        <v>93.32518253199909</v>
       </c>
       <c r="H40" t="n">
-        <v>72.0543891872917</v>
+        <v>72.05438918729165</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65179468280903</v>
+        <v>23.65179468280898</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23152694301827</v>
+        <v>59.5167014789425</v>
       </c>
       <c r="S40" t="n">
-        <v>117.0683996044128</v>
+        <v>117.0683996044127</v>
       </c>
       <c r="T40" t="n">
-        <v>146.8483235491401</v>
+        <v>146.84832354914</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5112124785838</v>
+        <v>213.5112124785837</v>
       </c>
       <c r="V40" t="n">
         <v>179.4370175967989</v>
@@ -3724,10 +3724,10 @@
         <v>213.8223726095619</v>
       </c>
       <c r="X40" t="n">
-        <v>153.0090296620081</v>
+        <v>153.009029662008</v>
       </c>
       <c r="Y40" t="n">
-        <v>189.1692021609894</v>
+        <v>145.8840276250656</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>115.0837411553327</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>343.0525435542109</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3980,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>195.1836852527098</v>
+        <v>222.431013704286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5021,13 +5021,13 @@
         <v>1301.367519464213</v>
       </c>
       <c r="D11" t="n">
-        <v>990.5514538055361</v>
+        <v>990.5514538055357</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822731</v>
+        <v>652.2128341553653</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>652.2128341553653</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5039,22 +5039,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5069,7 +5069,7 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
         <v>2898.155827638545</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686082</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>846.0716871064757</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>827.0643955080136</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>920.741664998631</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998341</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1680.134122574823</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>1358.621238582485</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1047.805172923807</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
         <v>1047.805172923807</v>
@@ -5270,58 +5270,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2592.836805316503</v>
+        <v>2393.999824030773</v>
       </c>
       <c r="X14" t="n">
-        <v>2266.820680003497</v>
+        <v>2067.983698717766</v>
       </c>
       <c r="Y14" t="n">
-        <v>2019.284329690872</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268784</v>
@@ -5428,10 +5428,10 @@
         <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
@@ -5455,10 +5455,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
         <v>2112.720554588246</v>
@@ -5476,10 +5476,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.6869997392</v>
+        <v>1473.081842778605</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.63840616116</v>
+        <v>1173.033249200566</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.286630916782</v>
+        <v>883.6814739561876</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4123016809102</v>
+        <v>566.8071447203156</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3403202536749</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="G17" t="n">
         <v>295.1817934610439</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.229076498636</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T17" t="n">
-        <v>3284.229076498636</v>
+        <v>3147.165252245234</v>
       </c>
       <c r="U17" t="n">
-        <v>3099.612523134845</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V17" t="n">
-        <v>2837.463559153647</v>
+        <v>2700.399734900244</v>
       </c>
       <c r="W17" t="n">
-        <v>2553.608827245906</v>
+        <v>2416.545002992502</v>
       </c>
       <c r="X17" t="n">
-        <v>2528.598325054389</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.372916440949</v>
+        <v>1790.767759480355</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,25 +5580,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,19 +5607,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2162169052013</v>
+        <v>609.2162169052015</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1939573396667</v>
+        <v>509.1939573396668</v>
       </c>
       <c r="D19" t="n">
         <v>427.9912412897033</v>
@@ -5659,37 +5659,37 @@
         <v>348.9920710696825</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0160469341444</v>
+        <v>271.0160469341445</v>
       </c>
       <c r="G19" t="n">
         <v>172.2271336712357</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92387025146576</v>
+        <v>94.92387025146579</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>140.2491842695883</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.2363672184646</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>660.7961656669607</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1004.95321126651</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.361587972374</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.691186892788</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.298687326447</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1955.908983478961</v>
@@ -5713,10 +5713,10 @@
         <v>1032.905041689872</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8294141542266</v>
+        <v>873.8294141542267</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9507583730688</v>
+        <v>721.9507583730689</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1547.615018311965</v>
+        <v>1473.081842778605</v>
       </c>
       <c r="C20" t="n">
-        <v>1247.566424733925</v>
+        <v>1173.033249200565</v>
       </c>
       <c r="D20" t="n">
-        <v>958.2146494895471</v>
+        <v>954.1281041241513</v>
       </c>
       <c r="E20" t="n">
-        <v>641.3403202536751</v>
+        <v>637.2537748882793</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3403202536751</v>
+        <v>295.181793461044</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1817934610439</v>
+        <v>295.181793461044</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.229076498637</v>
+        <v>3284.229076498638</v>
       </c>
       <c r="T20" t="n">
-        <v>3221.698427778593</v>
+        <v>3147.165252245233</v>
       </c>
       <c r="U20" t="n">
-        <v>3037.081874414801</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V20" t="n">
-        <v>2774.932910433603</v>
+        <v>2700.399734900243</v>
       </c>
       <c r="W20" t="n">
-        <v>2491.078178525861</v>
+        <v>2416.545002992501</v>
       </c>
       <c r="X20" t="n">
-        <v>2186.526343627153</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y20" t="n">
-        <v>1865.300935013714</v>
+        <v>1790.767759480354</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2162169052012</v>
+        <v>609.2162169052015</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1939573396666</v>
+        <v>509.1939573396668</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9912412897032</v>
+        <v>427.9912412897033</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9920710696824</v>
+        <v>348.9920710696825</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0160469341444</v>
+        <v>271.0160469341445</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2271336712356</v>
+        <v>172.2271336712357</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92387025146574</v>
+        <v>94.9238702514658</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.95321126651</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.361587972374</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1645.691186892788</v>
@@ -5941,19 +5941,19 @@
         <v>1659.367796719959</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.178853207974</v>
+        <v>1439.178853207975</v>
       </c>
       <c r="V22" t="n">
         <v>1253.40828836446</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.905041689871</v>
+        <v>1032.905041689872</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8294141542265</v>
+        <v>873.8294141542267</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9507583730687</v>
+        <v>721.9507583730689</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.18914579962</v>
+        <v>1898.189145799619</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.140552221581</v>
+        <v>1598.14055222158</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.788776977203</v>
+        <v>1308.788776977202</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9144477413306</v>
+        <v>991.9144477413297</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8424663140954</v>
+        <v>649.8424663140945</v>
       </c>
       <c r="G23" t="n">
         <v>303.6839395214642</v>
@@ -5987,22 +5987,22 @@
         <v>75.01426249260372</v>
       </c>
       <c r="J23" t="n">
-        <v>298.9758691250362</v>
+        <v>361.9178293224572</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7952428148826</v>
+        <v>695.7372030123036</v>
       </c>
       <c r="L23" t="n">
-        <v>1083.829456063291</v>
+        <v>1146.771416260712</v>
       </c>
       <c r="M23" t="n">
-        <v>1617.361360735215</v>
+        <v>1680.303320932637</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.662859081187</v>
+        <v>2227.082137991419</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.635329960523</v>
+        <v>2730.054608870756</v>
       </c>
       <c r="P23" t="n">
         <v>3443.409696317701</v>
@@ -6017,22 +6017,22 @@
         <v>3709.336379519653</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.272555266248</v>
+        <v>3572.272555266247</v>
       </c>
       <c r="U23" t="n">
         <v>3387.656001902456</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.507037921258</v>
+        <v>3125.507037921257</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.652306013516</v>
+        <v>2841.652306013515</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.100471114809</v>
+        <v>2537.100471114808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.875062501369</v>
+        <v>2215.875062501368</v>
       </c>
     </row>
     <row r="24">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524676</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O26" t="n">
-        <v>2971.628073400775</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803187</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,16 +6379,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6440,61 +6440,61 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>291.5583700766114</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>625.3777437664578</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1076.411957014866</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>1609.943861686791</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2156.722678745573</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075028</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6546,19 +6546,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913849</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415479</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277853</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>907.4660419013976</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1771.984857554752</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2305.516762226676</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6789,7 +6789,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
@@ -6853,19 +6853,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1289.412839322309</v>
       </c>
       <c r="E35" t="n">
-        <v>977.0595622059124</v>
+        <v>977.0595622059121</v>
       </c>
       <c r="F35" t="n">
-        <v>639.5086328981523</v>
+        <v>639.5086328981521</v>
       </c>
       <c r="G35" t="n">
         <v>297.8711582249961</v>
@@ -6947,13 +6947,13 @@
         <v>1580.987155884815</v>
       </c>
       <c r="N35" t="n">
-        <v>2127.765972943597</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O35" t="n">
-        <v>2630.738443822934</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P35" t="n">
-        <v>3168.631396714749</v>
+        <v>3378.823237468055</v>
       </c>
       <c r="Q35" t="n">
         <v>3627.109599223737</v>
@@ -6968,19 +6968,19 @@
         <v>3516.728200655552</v>
       </c>
       <c r="U35" t="n">
-        <v>3336.632699411237</v>
+        <v>3336.632699411236</v>
       </c>
       <c r="V35" t="n">
-        <v>3079.004787549514</v>
+        <v>3079.004787549513</v>
       </c>
       <c r="W35" t="n">
         <v>2799.671107761247</v>
       </c>
       <c r="X35" t="n">
-        <v>2499.640324982015</v>
+        <v>2499.640324982014</v>
       </c>
       <c r="Y35" t="n">
-        <v>2182.935968488051</v>
+        <v>2182.93596848805</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>948.754271364535</v>
+        <v>948.7542713645361</v>
       </c>
       <c r="C36" t="n">
-        <v>774.3012420834081</v>
+        <v>774.3012420834091</v>
       </c>
       <c r="D36" t="n">
-        <v>625.3668324221568</v>
+        <v>625.3668324221578</v>
       </c>
       <c r="E36" t="n">
-        <v>466.1293774167013</v>
+        <v>466.1293774167023</v>
       </c>
       <c r="F36" t="n">
-        <v>319.5948194435863</v>
+        <v>319.5948194435873</v>
       </c>
       <c r="G36" t="n">
-        <v>183.2317192762044</v>
+        <v>183.2317192762054</v>
       </c>
       <c r="H36" t="n">
-        <v>92.7298249140719</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I36" t="n">
         <v>73.72253331561079</v>
@@ -7020,46 +7020,46 @@
         <v>405.6640017865752</v>
       </c>
       <c r="L36" t="n">
-        <v>772.3621620992404</v>
+        <v>772.362162099241</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.638487321556</v>
+        <v>1219.638487321557</v>
       </c>
       <c r="N36" t="n">
         <v>1693.161530876011</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.122810294065</v>
+        <v>2104.122810294066</v>
       </c>
       <c r="P36" t="n">
-        <v>2414.622401770168</v>
+        <v>2414.622401770169</v>
       </c>
       <c r="Q36" t="n">
-        <v>2572.263959416768</v>
+        <v>2572.263959416769</v>
       </c>
       <c r="R36" t="n">
-        <v>2572.119606009283</v>
+        <v>2572.119606009284</v>
       </c>
       <c r="S36" t="n">
-        <v>2442.681719502763</v>
+        <v>2442.681719502764</v>
       </c>
       <c r="T36" t="n">
         <v>2250.038719180619</v>
       </c>
       <c r="U36" t="n">
-        <v>2021.970872315034</v>
+        <v>2021.970872315035</v>
       </c>
       <c r="V36" t="n">
-        <v>1786.818764083291</v>
+        <v>1786.818764083292</v>
       </c>
       <c r="W36" t="n">
-        <v>1532.58140735509</v>
+        <v>1532.581407355091</v>
       </c>
       <c r="X36" t="n">
-        <v>1324.729907149557</v>
+        <v>1324.729907149558</v>
       </c>
       <c r="Y36" t="n">
-        <v>1116.969608384603</v>
+        <v>1116.969608384604</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>628.5016674734369</v>
+        <v>584.7792689523021</v>
       </c>
       <c r="C37" t="n">
-        <v>533.0004600273776</v>
+        <v>489.2780615062427</v>
       </c>
       <c r="D37" t="n">
-        <v>456.3187960968894</v>
+        <v>412.5963975757545</v>
       </c>
       <c r="E37" t="n">
-        <v>381.8406779963439</v>
+        <v>338.1182794752089</v>
       </c>
       <c r="F37" t="n">
-        <v>308.385705980281</v>
+        <v>264.6633074591461</v>
       </c>
       <c r="G37" t="n">
         <v>170.3954463157126</v>
@@ -7120,25 +7120,25 @@
         <v>1918.109483211295</v>
       </c>
       <c r="S37" t="n">
-        <v>1799.858574519969</v>
+        <v>1756.136175998834</v>
       </c>
       <c r="T37" t="n">
-        <v>1651.526934571343</v>
+        <v>1607.804536050208</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.859043178834</v>
+        <v>1392.136644657699</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.609530454794</v>
+        <v>1210.88713193366</v>
       </c>
       <c r="W37" t="n">
-        <v>1038.627335899681</v>
+        <v>994.9049373785466</v>
       </c>
       <c r="X37" t="n">
-        <v>884.0727604835116</v>
+        <v>840.3503619623768</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.7151568218291</v>
+        <v>692.9927583006943</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1289.412839322309</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0595622059122</v>
+        <v>977.0595622059125</v>
       </c>
       <c r="F38" t="n">
-        <v>639.5086328981524</v>
+        <v>639.5086328981525</v>
       </c>
       <c r="G38" t="n">
         <v>297.871158224996</v>
@@ -7184,7 +7184,7 @@
         <v>1580.987155884815</v>
       </c>
       <c r="N38" t="n">
-        <v>2127.765972943597</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O38" t="n">
         <v>2984.048871110877</v>
@@ -7211,7 +7211,7 @@
         <v>3079.004787549513</v>
       </c>
       <c r="W38" t="n">
-        <v>2799.671107761247</v>
+        <v>2799.671107761246</v>
       </c>
       <c r="X38" t="n">
         <v>2499.640324982014</v>
@@ -7251,25 +7251,25 @@
         <v>73.72253331561079</v>
       </c>
       <c r="J39" t="n">
-        <v>167.3998028062281</v>
+        <v>167.3998028062286</v>
       </c>
       <c r="K39" t="n">
-        <v>405.6640017865752</v>
+        <v>405.6640017865757</v>
       </c>
       <c r="L39" t="n">
-        <v>772.3621620992404</v>
+        <v>772.362162099241</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.638487321556</v>
+        <v>1219.638487321557</v>
       </c>
       <c r="N39" t="n">
         <v>1693.161530876011</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.122810294065</v>
+        <v>2104.122810294066</v>
       </c>
       <c r="P39" t="n">
-        <v>2414.622401770168</v>
+        <v>2414.622401770169</v>
       </c>
       <c r="Q39" t="n">
         <v>2572.263959416769</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7792689523019</v>
+        <v>584.7792689523015</v>
       </c>
       <c r="C40" t="n">
-        <v>489.2780615062426</v>
+        <v>489.2780615062422</v>
       </c>
       <c r="D40" t="n">
-        <v>412.5963975757544</v>
+        <v>412.5963975757541</v>
       </c>
       <c r="E40" t="n">
-        <v>338.1182794752089</v>
+        <v>338.1182794752086</v>
       </c>
       <c r="F40" t="n">
-        <v>264.663307459146</v>
+        <v>264.6633074591459</v>
       </c>
       <c r="G40" t="n">
-        <v>170.3954463157125</v>
+        <v>170.3954463157124</v>
       </c>
       <c r="H40" t="n">
-        <v>97.6132350154179</v>
+        <v>97.61323501541784</v>
       </c>
       <c r="I40" t="n">
         <v>73.72253331561079</v>
@@ -7354,28 +7354,28 @@
         <v>1934.504964971919</v>
       </c>
       <c r="R40" t="n">
-        <v>1918.109483211295</v>
+        <v>1874.387084690159</v>
       </c>
       <c r="S40" t="n">
-        <v>1799.858574519969</v>
+        <v>1756.136175998833</v>
       </c>
       <c r="T40" t="n">
-        <v>1651.526934571343</v>
+        <v>1607.804536050207</v>
       </c>
       <c r="U40" t="n">
-        <v>1435.859043178834</v>
+        <v>1392.136644657698</v>
       </c>
       <c r="V40" t="n">
-        <v>1254.609530454794</v>
+        <v>1210.887131933659</v>
       </c>
       <c r="W40" t="n">
-        <v>1038.627335899681</v>
+        <v>994.9049373785458</v>
       </c>
       <c r="X40" t="n">
-        <v>884.0727604835116</v>
+        <v>840.350361962376</v>
       </c>
       <c r="Y40" t="n">
-        <v>692.992758300694</v>
+        <v>692.9927583006936</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1820.416478303288</v>
+        <v>2004.57806266332</v>
       </c>
       <c r="C41" t="n">
-        <v>1704.170275116083</v>
+        <v>1683.065178670982</v>
       </c>
       <c r="D41" t="n">
-        <v>1393.354209457406</v>
+        <v>1372.249113012304</v>
       </c>
       <c r="E41" t="n">
-        <v>1055.015589807235</v>
+        <v>1033.910493362133</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4793179657006</v>
+        <v>670.3742215205991</v>
       </c>
       <c r="G41" t="n">
-        <v>323.8565007587704</v>
+        <v>323.8565007587703</v>
       </c>
       <c r="H41" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="I41" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J41" t="n">
         <v>262.6016642746362</v>
@@ -7421,40 +7421,40 @@
         <v>1580.987155884815</v>
       </c>
       <c r="N41" t="n">
-        <v>2270.884559478236</v>
+        <v>2127.765972943597</v>
       </c>
       <c r="O41" t="n">
-        <v>2773.857030357573</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.631396714751</v>
+        <v>3378.823237468055</v>
       </c>
       <c r="Q41" t="n">
-        <v>3627.109599223739</v>
+        <v>3627.109599223737</v>
       </c>
       <c r="R41" t="n">
-        <v>3686.126665780541</v>
+        <v>3686.126665780539</v>
       </c>
       <c r="S41" t="n">
-        <v>3623.28563025571</v>
+        <v>3623.285630255708</v>
       </c>
       <c r="T41" t="n">
-        <v>3623.28563025571</v>
+        <v>3464.757515588003</v>
       </c>
       <c r="U41" t="n">
-        <v>3417.20478647762</v>
+        <v>3258.676671809913</v>
       </c>
       <c r="V41" t="n">
-        <v>3133.591532082122</v>
+        <v>2975.063417414416</v>
       </c>
       <c r="W41" t="n">
-        <v>2828.272509760081</v>
+        <v>2669.744395092375</v>
       </c>
       <c r="X41" t="n">
-        <v>2502.256384447075</v>
+        <v>2343.728269779368</v>
       </c>
       <c r="Y41" t="n">
-        <v>2159.566685419336</v>
+        <v>2343.728269779368</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>625.3668324221578</v>
       </c>
       <c r="E42" t="n">
-        <v>466.1293774167024</v>
+        <v>466.1293774167023</v>
       </c>
       <c r="F42" t="n">
         <v>319.5948194435873</v>
@@ -7482,13 +7482,13 @@
         <v>183.2317192762054</v>
       </c>
       <c r="H42" t="n">
-        <v>92.72982491407291</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I42" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J42" t="n">
-        <v>167.3998028062286</v>
+        <v>167.3998028062281</v>
       </c>
       <c r="K42" t="n">
         <v>405.6640017865757</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.6766666887221</v>
+        <v>766.6766666887216</v>
       </c>
       <c r="C43" t="n">
-        <v>645.1901167088885</v>
+        <v>645.190116708888</v>
       </c>
       <c r="D43" t="n">
-        <v>542.523110244626</v>
+        <v>542.5231102446256</v>
       </c>
       <c r="E43" t="n">
-        <v>442.0596496103061</v>
+        <v>442.0596496103058</v>
       </c>
       <c r="F43" t="n">
-        <v>342.619335060469</v>
+        <v>342.6193350604688</v>
       </c>
       <c r="G43" t="n">
-        <v>222.3661313832612</v>
+        <v>222.3661313832611</v>
       </c>
       <c r="H43" t="n">
         <v>123.5985775491922</v>
       </c>
       <c r="I43" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J43" t="n">
-        <v>165.350551014953</v>
+        <v>165.3505510149529</v>
       </c>
       <c r="K43" t="n">
-        <v>415.8431192162359</v>
+        <v>415.8431192162357</v>
       </c>
       <c r="L43" t="n">
-        <v>778.9083029171386</v>
+        <v>778.9083029171385</v>
       </c>
       <c r="M43" t="n">
         <v>1169.570733769094</v>
@@ -7588,22 +7588,22 @@
         <v>2182.432365586251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2306.548046991174</v>
+        <v>2306.548046991172</v>
       </c>
       <c r="R43" t="n">
-        <v>2264.167222696775</v>
+        <v>2264.167222696773</v>
       </c>
       <c r="S43" t="n">
-        <v>2119.930971471675</v>
+        <v>2119.930971471673</v>
       </c>
       <c r="T43" t="n">
-        <v>1945.613988989274</v>
+        <v>1945.613988989272</v>
       </c>
       <c r="U43" t="n">
-        <v>1703.960755062991</v>
+        <v>1703.96075506299</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.725899805177</v>
+        <v>1496.725899805176</v>
       </c>
       <c r="W43" t="n">
         <v>1254.758362716289</v>
@@ -7612,7 +7612,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.8754985708886</v>
+        <v>900.8754985708881</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.888363635584</v>
+        <v>1661.888363635581</v>
       </c>
       <c r="C44" t="n">
-        <v>1340.375479643246</v>
+        <v>1340.375479643243</v>
       </c>
       <c r="D44" t="n">
-        <v>1340.375479643246</v>
+        <v>1029.559413984566</v>
       </c>
       <c r="E44" t="n">
-        <v>1002.036859993075</v>
+        <v>1029.559413984566</v>
       </c>
       <c r="F44" t="n">
-        <v>638.5005881515408</v>
+        <v>666.0231421430319</v>
       </c>
       <c r="G44" t="n">
-        <v>270.8777709446107</v>
+        <v>298.4003249361017</v>
       </c>
       <c r="H44" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="I44" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J44" t="n">
         <v>262.6016642746362</v>
@@ -7652,46 +7652,46 @@
         <v>596.4210379644826</v>
       </c>
       <c r="L44" t="n">
-        <v>1047.455251212891</v>
+        <v>1335.706422826581</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.987155884815</v>
+        <v>1869.238327498505</v>
       </c>
       <c r="N44" t="n">
-        <v>2127.765972943597</v>
+        <v>2416.017144557287</v>
       </c>
       <c r="O44" t="n">
-        <v>2665.468150021111</v>
+        <v>2918.989615436624</v>
       </c>
       <c r="P44" t="n">
-        <v>3378.823237468057</v>
+        <v>3313.763981793802</v>
       </c>
       <c r="Q44" t="n">
-        <v>3627.109599223739</v>
+        <v>3562.050343549484</v>
       </c>
       <c r="R44" t="n">
-        <v>3686.126665780541</v>
+        <v>3686.126665780539</v>
       </c>
       <c r="S44" t="n">
-        <v>3623.28563025571</v>
+        <v>3623.285630255708</v>
       </c>
       <c r="T44" t="n">
-        <v>3464.757515588005</v>
+        <v>3464.757515588003</v>
       </c>
       <c r="U44" t="n">
-        <v>3258.676671809916</v>
+        <v>3258.676671809913</v>
       </c>
       <c r="V44" t="n">
-        <v>2975.063417414418</v>
+        <v>2975.063417414416</v>
       </c>
       <c r="W44" t="n">
-        <v>2669.744395092377</v>
+        <v>2669.744395092375</v>
       </c>
       <c r="X44" t="n">
-        <v>2343.72826977937</v>
+        <v>2343.728269779368</v>
       </c>
       <c r="Y44" t="n">
-        <v>2001.038570751632</v>
+        <v>2001.03857075163</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>625.3668324221578</v>
       </c>
       <c r="E45" t="n">
-        <v>466.1293774167024</v>
+        <v>466.1293774167023</v>
       </c>
       <c r="F45" t="n">
         <v>319.5948194435873</v>
@@ -7719,10 +7719,10 @@
         <v>183.2317192762054</v>
       </c>
       <c r="H45" t="n">
-        <v>92.72982491407291</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I45" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J45" t="n">
         <v>167.3998028062281</v>
@@ -7731,10 +7731,10 @@
         <v>405.6640017865752</v>
       </c>
       <c r="L45" t="n">
-        <v>772.3621620992405</v>
+        <v>772.362162099241</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.638487321556</v>
+        <v>1219.638487321557</v>
       </c>
       <c r="N45" t="n">
         <v>1693.161530876011</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.6766666887215</v>
+        <v>766.6766666887218</v>
       </c>
       <c r="C46" t="n">
-        <v>645.1901167088879</v>
+        <v>645.1901167088881</v>
       </c>
       <c r="D46" t="n">
-        <v>542.5231102446255</v>
+        <v>542.5231102446257</v>
       </c>
       <c r="E46" t="n">
-        <v>442.0596496103058</v>
+        <v>442.0596496103059</v>
       </c>
       <c r="F46" t="n">
         <v>342.6193350604688</v>
@@ -7801,16 +7801,16 @@
         <v>123.5985775491922</v>
       </c>
       <c r="I46" t="n">
-        <v>73.72253331561083</v>
+        <v>73.72253331561079</v>
       </c>
       <c r="J46" t="n">
-        <v>165.350551014953</v>
+        <v>165.3505510149529</v>
       </c>
       <c r="K46" t="n">
-        <v>415.843119216236</v>
+        <v>415.8431192162359</v>
       </c>
       <c r="L46" t="n">
-        <v>778.9083029171388</v>
+        <v>778.9083029171386</v>
       </c>
       <c r="M46" t="n">
         <v>1169.570733769094</v>
@@ -7849,7 +7849,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.8754985708879</v>
+        <v>900.8754985708881</v>
       </c>
     </row>
   </sheetData>
@@ -8456,22 +8456,22 @@
         <v>196.8928238898382</v>
       </c>
       <c r="L8" t="n">
-        <v>206.9884515625788</v>
+        <v>206.9884515625789</v>
       </c>
       <c r="M8" t="n">
-        <v>198.3252040166135</v>
+        <v>198.3252040166136</v>
       </c>
       <c r="N8" t="n">
-        <v>196.8739006563479</v>
+        <v>196.873900656348</v>
       </c>
       <c r="O8" t="n">
-        <v>199.3724025592436</v>
+        <v>199.3724025592437</v>
       </c>
       <c r="P8" t="n">
         <v>205.0092287578861</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.6127329749879</v>
+        <v>202.612732974988</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>117.6192276796905</v>
+        <v>117.6192276796906</v>
       </c>
       <c r="K9" t="n">
-        <v>122.0857268206288</v>
+        <v>122.0857268206289</v>
       </c>
       <c r="L9" t="n">
         <v>117.3688804135377</v>
@@ -8541,7 +8541,7 @@
         <v>117.411555416953</v>
       </c>
       <c r="N9" t="n">
-        <v>105.9649031362696</v>
+        <v>105.9649031362697</v>
       </c>
       <c r="O9" t="n">
         <v>119.3814220199286</v>
@@ -8550,7 +8550,7 @@
         <v>115.3424657637584</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.5268145151123</v>
+        <v>127.5268145151124</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,13 +8620,13 @@
         <v>126.1031129636122</v>
       </c>
       <c r="N10" t="n">
-        <v>115.1677679371608</v>
+        <v>115.1677679371609</v>
       </c>
       <c r="O10" t="n">
-        <v>126.8943457673261</v>
+        <v>126.8943457673262</v>
       </c>
       <c r="P10" t="n">
-        <v>127.8345507770348</v>
+        <v>127.8345507770349</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43684411455266</v>
+        <v>99.01458168770512</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>385.3764457446352</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>336.8335818149117</v>
+        <v>165.3902622431555</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.74982042514836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>231.1066821161379</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>306.687495308926</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.7354935515745</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>356.8792194827702</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>144.5642288228655</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.485745522397337e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>356.8792194827702</v>
       </c>
       <c r="O38" t="n">
-        <v>356.8792194827705</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>144.5642288228672</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>356.8792194827705</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>291.1627996097874</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>35.08051131128968</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>31.73550625763924</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.73550625763891</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866829</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.20181522796224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>69.74216386628444</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6969415247049</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6931860108716</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>276.7459193801189</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>69.74216386628434</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6512616129629</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>342.6969415247049</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.78784377802739</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.847855615887966e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2140139970823</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>20.89404548065001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>52.44894251601804</v>
+        <v>25.20161406444199</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>901082.3089181146</v>
+        <v>901082.3089181148</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774900.0572950525</v>
+        <v>774900.0572950526</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798580.6644803701</v>
+        <v>798580.6644803702</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814815.5562021536</v>
+        <v>814815.5562021534</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814815.5562021537</v>
+        <v>814815.5562021534</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
         <v>614458.1357648732</v>
@@ -26320,13 +26320,13 @@
         <v>614468.1410007898</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.2574173824</v>
+        <v>573398.257417382</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.2574173822</v>
+        <v>573398.2574173821</v>
       </c>
       <c r="G2" t="n">
-        <v>591158.712806371</v>
+        <v>591158.7128063708</v>
       </c>
       <c r="H2" t="n">
         <v>591158.712806371</v>
@@ -26335,25 +26335,25 @@
         <v>615781.3273982131</v>
       </c>
       <c r="J2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="K2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="M2" t="n">
         <v>615781.3273982123</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615781.3273982126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615781.3273982126</v>
       </c>
       <c r="N2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="O2" t="n">
+        <v>594279.9636013814</v>
+      </c>
+      <c r="P2" t="n">
         <v>594279.9636013813</v>
-      </c>
-      <c r="P2" t="n">
-        <v>594279.9636013815</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>35702.60046935236</v>
+        <v>35702.60046935225</v>
       </c>
       <c r="E3" t="n">
         <v>1124903.918865022</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.71800812479</v>
+        <v>16999.71800812483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.23978166289</v>
+        <v>28261.2397816628</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.54414803088</v>
+        <v>40637.54414803087</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.71800812485</v>
+        <v>16999.71800812477</v>
       </c>
       <c r="M3" t="n">
         <v>204641.633504584</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>423752.0599707538</v>
+        <v>423752.059970754</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359856</v>
+        <v>58215.55741359858</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359856</v>
+        <v>58215.55741359852</v>
       </c>
       <c r="G4" t="n">
         <v>71624.61628857303</v>
       </c>
       <c r="H4" t="n">
-        <v>71624.61628857304</v>
+        <v>71624.61628857307</v>
       </c>
       <c r="I4" t="n">
-        <v>85910.97499131855</v>
+        <v>85910.97499131854</v>
       </c>
       <c r="J4" t="n">
         <v>82806.76150409848</v>
       </c>
       <c r="K4" t="n">
+        <v>82806.76150409851</v>
+      </c>
+      <c r="L4" t="n">
         <v>82806.76150409842</v>
-      </c>
-      <c r="L4" t="n">
-        <v>82806.7615040985</v>
       </c>
       <c r="M4" t="n">
         <v>86578.44856836615</v>
       </c>
       <c r="N4" t="n">
-        <v>86578.44856836615</v>
+        <v>86578.44856836619</v>
       </c>
       <c r="O4" t="n">
-        <v>70331.39278750695</v>
+        <v>70331.39278750691</v>
       </c>
       <c r="P4" t="n">
-        <v>70331.39278750701</v>
+        <v>70331.39278750689</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.92993831303</v>
+        <v>80041.92993831307</v>
       </c>
       <c r="H5" t="n">
         <v>80041.92993831306</v>
@@ -26497,7 +26497,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>85898.12629704371</v>
@@ -26506,10 +26506,10 @@
         <v>85898.12629704371</v>
       </c>
       <c r="O5" t="n">
-        <v>83735.41015318657</v>
+        <v>83735.41015318656</v>
       </c>
       <c r="P5" t="n">
-        <v>83735.41015318659</v>
+        <v>83735.41015318656</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144555.7743185304</v>
+        <v>144551.3607406626</v>
       </c>
       <c r="C6" t="n">
-        <v>142163.9777028195</v>
+        <v>142159.5670640417</v>
       </c>
       <c r="D6" t="n">
-        <v>120396.981420481</v>
+        <v>120392.6041324896</v>
       </c>
       <c r="E6" t="n">
-        <v>-687976.7121830196</v>
+        <v>-688117.9890829565</v>
       </c>
       <c r="F6" t="n">
-        <v>436927.2066820019</v>
+        <v>436785.9297820657</v>
       </c>
       <c r="G6" t="n">
-        <v>422492.4485713603</v>
+        <v>422410.373189387</v>
       </c>
       <c r="H6" t="n">
-        <v>439492.1665794849</v>
+        <v>439410.0911975121</v>
       </c>
       <c r="I6" t="n">
-        <v>415105.5516809991</v>
+        <v>415105.5516809992</v>
       </c>
       <c r="J6" t="n">
         <v>402959.0800712773</v>
       </c>
       <c r="K6" t="n">
-        <v>443596.6242193077</v>
+        <v>443596.6242193082</v>
       </c>
       <c r="L6" t="n">
-        <v>426596.9062111832</v>
+        <v>426596.9062111836</v>
       </c>
       <c r="M6" t="n">
-        <v>238663.1190282188</v>
+        <v>238663.1190282184</v>
       </c>
       <c r="N6" t="n">
-        <v>443304.7525328025</v>
+        <v>443304.7525328023</v>
       </c>
       <c r="O6" t="n">
-        <v>440213.1606606878</v>
+        <v>440141.4894480318</v>
       </c>
       <c r="P6" t="n">
-        <v>440213.1606606879</v>
+        <v>440141.4894480317</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
         <v>68.22478412874857</v>
       </c>
       <c r="H2" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I2" t="n">
         <v>68.2247841287486</v>
@@ -26710,22 +26710,22 @@
         <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>72.70062572702906</v>
       </c>
       <c r="N2" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>45.36234588085388</v>
+        <v>45.36234588085374</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,25 +26799,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>937.6782811575465</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>921.5316664451349</v>
@@ -26826,10 +26826,10 @@
         <v>921.5316664451349</v>
       </c>
       <c r="O4" t="n">
-        <v>921.5316664451353</v>
+        <v>921.5316664451349</v>
       </c>
       <c r="P4" t="n">
-        <v>921.5316664451353</v>
+        <v>921.5316664451349</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24964751015599</v>
+        <v>21.24964751015603</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72548910843655</v>
+        <v>25.72548910843657</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015606</v>
+        <v>21.24964751015597</v>
       </c>
       <c r="M2" t="n">
-        <v>25.72548910843648</v>
+        <v>25.72548910843651</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>41.68848298761156</v>
+        <v>41.68848298761142</v>
       </c>
       <c r="E3" t="n">
         <v>1044.414354712444</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.276825755254</v>
+        <v>106.2768257552536</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65818005106803</v>
+        <v>76.65818005106792</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.5966606388132</v>
+        <v>738.5966606388133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015599</v>
+        <v>21.24964751015603</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72548910843655</v>
+        <v>25.72548910843657</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.09982124425287</v>
+        <v>94.09982124425289</v>
       </c>
       <c r="S9" t="n">
-        <v>169.8708170018999</v>
+        <v>169.8708170019</v>
       </c>
       <c r="T9" t="n">
         <v>199.7714457149678</v>
@@ -28032,10 +28032,10 @@
         <v>152.99049721949</v>
       </c>
       <c r="J10" t="n">
-        <v>87.57585283937112</v>
+        <v>87.57585283937114</v>
       </c>
       <c r="K10" t="n">
-        <v>12.76570854133675</v>
+        <v>12.76570854133678</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.31232902368545</v>
+        <v>79.31232902368546</v>
       </c>
       <c r="R10" t="n">
         <v>173.6153231357481</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>68.22478412874857</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>68.22478412874857</v>
       </c>
       <c r="J19" t="n">
-        <v>28.90347009138323</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>28.90347009138247</v>
       </c>
       <c r="R19" t="n">
         <v>68.22478412874857</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>28.90347009138321</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.90347009138293</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="S22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.2247841287486</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="23">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30156,7 +30156,7 @@
         <v>72.70062572702906</v>
       </c>
       <c r="G37" t="n">
-        <v>29.41545119110549</v>
+        <v>72.70062572702906</v>
       </c>
       <c r="H37" t="n">
         <v>72.70062572702906</v>
@@ -30192,7 +30192,7 @@
         <v>72.70062572702906</v>
       </c>
       <c r="S37" t="n">
-        <v>72.70062572702906</v>
+        <v>29.41545119110583</v>
       </c>
       <c r="T37" t="n">
         <v>72.70062572702906</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="C38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="D38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="E38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="F38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="G38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="H38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="U38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="V38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="W38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="X38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="C40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="D40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="E40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="F40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="G40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="H40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="I40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.70062572702908</v>
+        <v>29.41545119110484</v>
       </c>
       <c r="S40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="T40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="U40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="V40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="W40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="X40" t="n">
-        <v>72.70062572702908</v>
+        <v>72.70062572702913</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.4154511911054</v>
+        <v>72.70062572702913</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859351</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31279,7 +31279,7 @@
         <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906246</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
         <v>0.5693933635848223</v>
@@ -31297,7 +31297,7 @@
         <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677226</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
         <v>2.488460569060429</v>
@@ -31315,7 +31315,7 @@
         <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203315</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
         <v>0.001181543845062855</v>
@@ -31361,10 +31361,10 @@
         <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033227</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578566</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>1.276043491891533</v>
@@ -31373,13 +31373,13 @@
         <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817063</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
         <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242604</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
         <v>1.508987194773435</v>
@@ -31388,16 +31388,16 @@
         <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673423</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
         <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273292</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0005198862584776868</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31443,10 +31443,10 @@
         <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581231</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0.769704389764538</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
         <v>0.9849566189522113</v>
@@ -31458,10 +31458,10 @@
         <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9364134469529769</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900948</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
         <v>0.5547532968795902</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1823611894707692</v>
+        <v>0.1823611894707687</v>
       </c>
       <c r="H8" t="n">
-        <v>1.867606531667516</v>
+        <v>1.86760653166751</v>
       </c>
       <c r="I8" t="n">
-        <v>7.030479757071838</v>
+        <v>7.030479757071816</v>
       </c>
       <c r="J8" t="n">
-        <v>15.47767800484471</v>
+        <v>15.47767800484467</v>
       </c>
       <c r="K8" t="n">
-        <v>23.19702715514238</v>
+        <v>23.19702715514231</v>
       </c>
       <c r="L8" t="n">
-        <v>28.77796340740844</v>
+        <v>28.77796340740835</v>
       </c>
       <c r="M8" t="n">
-        <v>32.02102921065923</v>
+        <v>32.02102921065914</v>
       </c>
       <c r="N8" t="n">
-        <v>32.53916294024306</v>
+        <v>32.53916294024296</v>
       </c>
       <c r="O8" t="n">
-        <v>30.72580886244309</v>
+        <v>30.725808862443</v>
       </c>
       <c r="P8" t="n">
-        <v>26.22376699738347</v>
+        <v>26.2237669973834</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.69295689946155</v>
+        <v>19.69295689946149</v>
       </c>
       <c r="R8" t="n">
-        <v>11.45524606809322</v>
+        <v>11.45524606809318</v>
       </c>
       <c r="S8" t="n">
-        <v>4.155555605065158</v>
+        <v>4.155555605065145</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7982861069082927</v>
+        <v>0.7982861069082904</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01458889515766154</v>
+        <v>0.01458889515766149</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09757183830976118</v>
+        <v>0.09757183830976089</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9423385436758516</v>
+        <v>0.9423385436758487</v>
       </c>
       <c r="I9" t="n">
-        <v>3.359381275138708</v>
+        <v>3.359381275138698</v>
       </c>
       <c r="J9" t="n">
-        <v>9.218398986976165</v>
+        <v>9.218398986976139</v>
       </c>
       <c r="K9" t="n">
-        <v>15.75571215373016</v>
+        <v>15.75571215373012</v>
       </c>
       <c r="L9" t="n">
-        <v>21.18549936633653</v>
+        <v>21.18549936633646</v>
       </c>
       <c r="M9" t="n">
-        <v>24.72247850506536</v>
+        <v>24.72247850506529</v>
       </c>
       <c r="N9" t="n">
-        <v>25.37680894706372</v>
+        <v>25.37680894706364</v>
       </c>
       <c r="O9" t="n">
-        <v>23.21482242451585</v>
+        <v>23.21482242451578</v>
       </c>
       <c r="P9" t="n">
-        <v>18.63194165057185</v>
+        <v>18.6319416505718</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.45495957090916</v>
+        <v>12.45495957090913</v>
       </c>
       <c r="R9" t="n">
-        <v>6.058012908390262</v>
+        <v>6.058012908390245</v>
       </c>
       <c r="S9" t="n">
-        <v>1.812354101937887</v>
+        <v>1.812354101937882</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3932829798538179</v>
+        <v>0.3932829798538168</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00641919988880008</v>
+        <v>0.006419199888800061</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08180095158842501</v>
+        <v>0.08180095158842478</v>
       </c>
       <c r="H10" t="n">
-        <v>0.727284824122543</v>
+        <v>0.7272848241225408</v>
       </c>
       <c r="I10" t="n">
-        <v>2.459977707768273</v>
+        <v>2.459977707768266</v>
       </c>
       <c r="J10" t="n">
-        <v>5.783327277301648</v>
+        <v>5.783327277301631</v>
       </c>
       <c r="K10" t="n">
-        <v>9.503783284546104</v>
+        <v>9.503783284546076</v>
       </c>
       <c r="L10" t="n">
-        <v>12.16157056615548</v>
+        <v>12.16157056615545</v>
       </c>
       <c r="M10" t="n">
-        <v>12.82267098399284</v>
+        <v>12.8226709839928</v>
       </c>
       <c r="N10" t="n">
-        <v>12.51777652807236</v>
+        <v>12.51777652807232</v>
       </c>
       <c r="O10" t="n">
-        <v>11.56219268451666</v>
+        <v>11.56219268451663</v>
       </c>
       <c r="P10" t="n">
-        <v>9.893453272112783</v>
+        <v>9.893453272112753</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.849714228008936</v>
+        <v>6.849714228008915</v>
       </c>
       <c r="R10" t="n">
-        <v>3.678068241421364</v>
+        <v>3.678068241421353</v>
       </c>
       <c r="S10" t="n">
-        <v>1.425567492681916</v>
+        <v>1.425567492681911</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3495131567869068</v>
+        <v>0.3495131567869058</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00446187008664137</v>
+        <v>0.004461870086641357</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32798,10 +32798,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026443</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353162</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -34460,7 +34460,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.48188670444942</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>107.2977086292761</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36285,13 +36285,13 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>376.536849484867</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>331.2566003140226</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>226.2238450832652</v>
+        <v>289.8015826564176</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36367,13 +36367,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>937.6782811575465</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36446,10 +36446,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>844.8865827031307</v>
+        <v>673.4432631313745</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>212.5368213938609</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>770.0277979463644</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>643.8787818643264</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>647.656609381801</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>909.1810548956814</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>543.3262150422371</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340059</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37552,10 +37552,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>909.1810548956814</v>
       </c>
       <c r="O38" t="n">
-        <v>864.9322203709895</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597763</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,16 +37789,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>696.8660642357785</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>864.9322203709895</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597759</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609572</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -37950,13 +37950,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564871</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>746.7529140021194</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>543.1335121995087</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340059</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38108,7 +38108,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
